--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92437A8-87BA-4E47-AAD4-3856B9A962C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9F8926-A406-4CCC-9F3E-DA6397B1E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Paul Vocals</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Crowd Right</t>
+  </si>
+  <si>
+    <t>Paul Mndln</t>
+  </si>
+  <si>
+    <t>The column Width needs to be set to 12 to accurately represent the spacing required for each stack of blocks to occupy half of the equipment width.</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,25 +215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,25 +233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA3E0FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5F5FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,19 +285,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,25 +303,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -697,7 +649,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,26 +659,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="J1" s="16" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="J1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -779,52 +731,52 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -839,26 +791,26 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="J5" s="16" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -911,48 +863,50 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="12" t="s">
+      <c r="H7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -966,7 +920,11 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9F8926-A406-4CCC-9F3E-DA6397B1E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222E246D-6F0B-4BED-9EEC-916EAE091F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
-  <si>
-    <t>Paul Vocals</t>
-  </si>
-  <si>
-    <t>Paul Electric</t>
-  </si>
-  <si>
-    <t>Kenzi Vocals</t>
-  </si>
-  <si>
-    <t>Kenzi Piano</t>
-  </si>
-  <si>
-    <t>Kenzi Keys</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Kick</t>
   </si>
@@ -74,37 +59,10 @@
     <t>Hi-Hat</t>
   </si>
   <si>
-    <t>Chad Vocals</t>
-  </si>
-  <si>
-    <t>John Vocals</t>
-  </si>
-  <si>
-    <t>John Bass</t>
-  </si>
-  <si>
-    <t>Kenzi Electric</t>
-  </si>
-  <si>
-    <t>Kenzi Acoustic</t>
-  </si>
-  <si>
-    <t>Jessica Vocals</t>
-  </si>
-  <si>
     <t>Overhd Hat</t>
   </si>
   <si>
     <t>Overhd Ride</t>
-  </si>
-  <si>
-    <t>Jessica Acoustic</t>
-  </si>
-  <si>
-    <t>John Aux</t>
-  </si>
-  <si>
-    <t>Bongos</t>
   </si>
   <si>
     <t>Jessica IEM</t>
@@ -138,10 +96,46 @@
     <t>Crowd Right</t>
   </si>
   <si>
-    <t>Paul Mndln</t>
-  </si>
-  <si>
     <t>The column Width needs to be set to 12 to accurately represent the spacing required for each stack of blocks to occupy half of the equipment width.</t>
+  </si>
+  <si>
+    <t>CSR Vocals</t>
+  </si>
+  <si>
+    <t>CSR Acoustic</t>
+  </si>
+  <si>
+    <t>CSL Vocals</t>
+  </si>
+  <si>
+    <t>CSL Electric</t>
+  </si>
+  <si>
+    <t>SR Vocals</t>
+  </si>
+  <si>
+    <t>SR Bass</t>
+  </si>
+  <si>
+    <t>SR Aux</t>
+  </si>
+  <si>
+    <t>SL Vocals</t>
+  </si>
+  <si>
+    <t>SL Piano</t>
+  </si>
+  <si>
+    <t>SL Keys</t>
+  </si>
+  <si>
+    <t>SL Electric</t>
+  </si>
+  <si>
+    <t>SL Acoustic</t>
+  </si>
+  <si>
+    <t>Drum Vocals</t>
   </si>
 </sst>
 </file>
@@ -649,7 +643,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +654,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -670,7 +664,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="J1" s="10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -731,53 +725,53 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>16</v>
+      <c r="P3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -792,7 +786,7 @@
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -802,7 +796,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -864,65 +858,52 @@
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>27</v>
+      <c r="N7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
+    <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222E246D-6F0B-4BED-9EEC-916EAE091F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67C3589-BC92-47B9-9100-62CABDBD5CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
@@ -59,12 +59,6 @@
     <t>Hi-Hat</t>
   </si>
   <si>
-    <t>Overhd Hat</t>
-  </si>
-  <si>
-    <t>Overhd Ride</t>
-  </si>
-  <si>
     <t>Jessica IEM</t>
   </si>
   <si>
@@ -136,6 +130,12 @@
   </si>
   <si>
     <t>Drum Vocals</t>
+  </si>
+  <si>
+    <t>SL Drum Overhd</t>
+  </si>
+  <si>
+    <t>SR Drum Overhd</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -664,7 +664,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="J1" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -726,40 +726,40 @@
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>0</v>
@@ -768,10 +768,10 @@
         <v>1</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -786,7 +786,7 @@
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -796,7 +796,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -858,7 +858,7 @@
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>2</v>
@@ -879,31 +879,31 @@
       <c r="H7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9F8926-A406-4CCC-9F3E-DA6397B1E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67C3589-BC92-47B9-9100-62CABDBD5CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
-  <si>
-    <t>Paul Vocals</t>
-  </si>
-  <si>
-    <t>Paul Electric</t>
-  </si>
-  <si>
-    <t>Kenzi Vocals</t>
-  </si>
-  <si>
-    <t>Kenzi Piano</t>
-  </si>
-  <si>
-    <t>Kenzi Keys</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Kick</t>
   </si>
@@ -72,39 +57,6 @@
   </si>
   <si>
     <t>Hi-Hat</t>
-  </si>
-  <si>
-    <t>Chad Vocals</t>
-  </si>
-  <si>
-    <t>John Vocals</t>
-  </si>
-  <si>
-    <t>John Bass</t>
-  </si>
-  <si>
-    <t>Kenzi Electric</t>
-  </si>
-  <si>
-    <t>Kenzi Acoustic</t>
-  </si>
-  <si>
-    <t>Jessica Vocals</t>
-  </si>
-  <si>
-    <t>Overhd Hat</t>
-  </si>
-  <si>
-    <t>Overhd Ride</t>
-  </si>
-  <si>
-    <t>Jessica Acoustic</t>
-  </si>
-  <si>
-    <t>John Aux</t>
-  </si>
-  <si>
-    <t>Bongos</t>
   </si>
   <si>
     <t>Jessica IEM</t>
@@ -138,10 +90,52 @@
     <t>Crowd Right</t>
   </si>
   <si>
-    <t>Paul Mndln</t>
-  </si>
-  <si>
     <t>The column Width needs to be set to 12 to accurately represent the spacing required for each stack of blocks to occupy half of the equipment width.</t>
+  </si>
+  <si>
+    <t>CSR Vocals</t>
+  </si>
+  <si>
+    <t>CSR Acoustic</t>
+  </si>
+  <si>
+    <t>CSL Vocals</t>
+  </si>
+  <si>
+    <t>CSL Electric</t>
+  </si>
+  <si>
+    <t>SR Vocals</t>
+  </si>
+  <si>
+    <t>SR Bass</t>
+  </si>
+  <si>
+    <t>SR Aux</t>
+  </si>
+  <si>
+    <t>SL Vocals</t>
+  </si>
+  <si>
+    <t>SL Piano</t>
+  </si>
+  <si>
+    <t>SL Keys</t>
+  </si>
+  <si>
+    <t>SL Electric</t>
+  </si>
+  <si>
+    <t>SL Acoustic</t>
+  </si>
+  <si>
+    <t>Drum Vocals</t>
+  </si>
+  <si>
+    <t>SL Drum Overhd</t>
+  </si>
+  <si>
+    <t>SR Drum Overhd</t>
   </si>
 </sst>
 </file>
@@ -649,7 +643,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +654,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -670,7 +664,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="J1" s="10" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -731,53 +725,53 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>16</v>
+      <c r="P3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -792,7 +786,7 @@
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -802,7 +796,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -864,65 +858,52 @@
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="O7" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
+    <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67C3589-BC92-47B9-9100-62CABDBD5CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A080CA3-16D1-4214-AED8-16E1427270CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Kick</t>
   </si>
@@ -93,49 +93,46 @@
     <t>The column Width needs to be set to 12 to accurately represent the spacing required for each stack of blocks to occupy half of the equipment width.</t>
   </si>
   <si>
-    <t>CSR Vocals</t>
-  </si>
-  <si>
-    <t>CSR Acoustic</t>
-  </si>
-  <si>
-    <t>CSL Vocals</t>
-  </si>
-  <si>
-    <t>CSL Electric</t>
-  </si>
-  <si>
-    <t>SR Vocals</t>
-  </si>
-  <si>
-    <t>SR Bass</t>
-  </si>
-  <si>
-    <t>SR Aux</t>
-  </si>
-  <si>
-    <t>SL Vocals</t>
-  </si>
-  <si>
-    <t>SL Piano</t>
-  </si>
-  <si>
-    <t>SL Keys</t>
-  </si>
-  <si>
-    <t>SL Electric</t>
-  </si>
-  <si>
-    <t>SL Acoustic</t>
-  </si>
-  <si>
-    <t>Drum Vocals</t>
-  </si>
-  <si>
-    <t>SL Drum Overhd</t>
-  </si>
-  <si>
-    <t>SR Drum Overhd</t>
+    <t>DSR Vocals</t>
+  </si>
+  <si>
+    <t>DSR Bass</t>
+  </si>
+  <si>
+    <t>DSR Aux</t>
+  </si>
+  <si>
+    <t>DCR Vocals</t>
+  </si>
+  <si>
+    <t>DCR Acoustic</t>
+  </si>
+  <si>
+    <t>DCL Vocals</t>
+  </si>
+  <si>
+    <t>DCL Electric</t>
+  </si>
+  <si>
+    <t>DSL Vocals</t>
+  </si>
+  <si>
+    <t>DSL Piano</t>
+  </si>
+  <si>
+    <t>DSL Keys</t>
+  </si>
+  <si>
+    <t>DSL Electric</t>
+  </si>
+  <si>
+    <t>DSL Acoustic</t>
+  </si>
+  <si>
+    <t>UC Drum Overhd</t>
+  </si>
+  <si>
+    <t>UC Vocals</t>
   </si>
 </sst>
 </file>
@@ -643,7 +640,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,25 +723,25 @@
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>24</v>
@@ -768,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -858,7 +855,7 @@
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>2</v>

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A080CA3-16D1-4214-AED8-16E1427270CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0107D1FA-22E2-4D3F-AB73-9262B5555688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Kick</t>
   </si>
@@ -129,17 +129,20 @@
     <t>DSL Acoustic</t>
   </si>
   <si>
-    <t>UC Drum Overhd</t>
-  </si>
-  <si>
-    <t>UC Vocals</t>
+    <t>USC Vocals</t>
+  </si>
+  <si>
+    <t>USCL Drum Overhd</t>
+  </si>
+  <si>
+    <t>USCR Drum Overhd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +176,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,6 +319,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +660,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,11 +784,11 @@
       <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>29</v>
+      <c r="P3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -855,7 +875,7 @@
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>2</v>
@@ -899,17 +919,36 @@
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="A9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0107D1FA-22E2-4D3F-AB73-9262B5555688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF8A24-0F34-4D5E-91B8-A89034B54BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-16320" yWindow="-7305" windowWidth="16440" windowHeight="29040" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
@@ -38,27 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
-    <t>Kick</t>
-  </si>
-  <si>
-    <t>Snare</t>
-  </si>
-  <si>
-    <t>Tom 1</t>
-  </si>
-  <si>
-    <t>Tom 2</t>
-  </si>
-  <si>
-    <t>Tom 3</t>
-  </si>
-  <si>
-    <t>Tom 4</t>
-  </si>
-  <si>
-    <t>Hi-Hat</t>
-  </si>
-  <si>
     <t>Jessica IEM</t>
   </si>
   <si>
@@ -105,44 +84,65 @@
     <t>DCR Vocals</t>
   </si>
   <si>
-    <t>DCR Acoustic</t>
-  </si>
-  <si>
     <t>DCL Vocals</t>
   </si>
   <si>
-    <t>DCL Electric</t>
-  </si>
-  <si>
     <t>DSL Vocals</t>
   </si>
   <si>
     <t>DSL Piano</t>
   </si>
   <si>
-    <t>DSL Keys</t>
-  </si>
-  <si>
-    <t>DSL Electric</t>
-  </si>
-  <si>
-    <t>DSL Acoustic</t>
-  </si>
-  <si>
     <t>USC Vocals</t>
   </si>
   <si>
-    <t>USCL Drum Overhd</t>
-  </si>
-  <si>
-    <t>USCR Drum Overhd</t>
+    <t>USC Tom 1</t>
+  </si>
+  <si>
+    <t>USC Tom 2</t>
+  </si>
+  <si>
+    <t>USC Tom 3</t>
+  </si>
+  <si>
+    <t>USC Tom 4</t>
+  </si>
+  <si>
+    <t>USC Hi-Hat</t>
+  </si>
+  <si>
+    <t>USC Kick</t>
+  </si>
+  <si>
+    <t>USC Snare</t>
+  </si>
+  <si>
+    <t>USC SL Overhd</t>
+  </si>
+  <si>
+    <t>USC SR Overhd</t>
+  </si>
+  <si>
+    <t>DCR Acstc Guitar</t>
+  </si>
+  <si>
+    <t>DCL Elec Guitar</t>
+  </si>
+  <si>
+    <t>DSL Keyboard</t>
+  </si>
+  <si>
+    <t>DSL Elec Guitar</t>
+  </si>
+  <si>
+    <t>DSL Acstc Guitar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +183,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,11 +323,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,10 +338,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -660,7 +688,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +699,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -681,7 +709,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="J1" s="10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -741,54 +769,55 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
+    <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="O3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="P3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="Q3" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -803,7 +832,7 @@
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -813,7 +842,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -874,53 +903,53 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="N7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="O7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -929,7 +958,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
@@ -940,7 +969,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF8A24-0F34-4D5E-91B8-A89034B54BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8D2B98-35E7-4A67-80BA-C7FC0DAE80A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-7305" windowWidth="16440" windowHeight="29040" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
-  <si>
-    <t>Jessica IEM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Top</t>
   </si>
@@ -69,73 +66,117 @@
     <t>Crowd Right</t>
   </si>
   <si>
-    <t>The column Width needs to be set to 12 to accurately represent the spacing required for each stack of blocks to occupy half of the equipment width.</t>
-  </si>
-  <si>
-    <t>DSR Vocals</t>
-  </si>
-  <si>
-    <t>DSR Bass</t>
-  </si>
-  <si>
-    <t>DSR Aux</t>
-  </si>
-  <si>
-    <t>DCR Vocals</t>
-  </si>
-  <si>
-    <t>DCL Vocals</t>
-  </si>
-  <si>
-    <t>DSL Vocals</t>
-  </si>
-  <si>
-    <t>DSL Piano</t>
-  </si>
-  <si>
-    <t>USC Vocals</t>
-  </si>
-  <si>
-    <t>USC Tom 1</t>
-  </si>
-  <si>
-    <t>USC Tom 2</t>
-  </si>
-  <si>
-    <t>USC Tom 3</t>
-  </si>
-  <si>
-    <t>USC Tom 4</t>
-  </si>
-  <si>
-    <t>USC Hi-Hat</t>
-  </si>
-  <si>
-    <t>USC Kick</t>
-  </si>
-  <si>
-    <t>USC Snare</t>
-  </si>
-  <si>
-    <t>USC SL Overhd</t>
-  </si>
-  <si>
-    <t>USC SR Overhd</t>
-  </si>
-  <si>
-    <t>DCR Acstc Guitar</t>
-  </si>
-  <si>
-    <t>DCL Elec Guitar</t>
-  </si>
-  <si>
-    <t>DSL Keyboard</t>
-  </si>
-  <si>
-    <t>DSL Elec Guitar</t>
-  </si>
-  <si>
-    <t>DSL Acstc Guitar</t>
+    <t>Vocals 1 DSR</t>
+  </si>
+  <si>
+    <t>Vocals 2 DCR</t>
+  </si>
+  <si>
+    <t>Vocals 3 DCL</t>
+  </si>
+  <si>
+    <t>Vocals 4 DSL</t>
+  </si>
+  <si>
+    <t>Vocals 5 USC</t>
+  </si>
+  <si>
+    <t>Aux/SFX DSR</t>
+  </si>
+  <si>
+    <t>Keyboard DSL</t>
+  </si>
+  <si>
+    <t>SL Overhd USC</t>
+  </si>
+  <si>
+    <t>SR Overhd USC</t>
+  </si>
+  <si>
+    <t>Bass
+DSR</t>
+  </si>
+  <si>
+    <t>Piano
+DSL</t>
+  </si>
+  <si>
+    <t>Kick
+USC</t>
+  </si>
+  <si>
+    <t>Snare
+USC</t>
+  </si>
+  <si>
+    <t>Hi-Hat
+USC</t>
+  </si>
+  <si>
+    <t>Tom 1
+USC</t>
+  </si>
+  <si>
+    <t>Tom 2
+USC</t>
+  </si>
+  <si>
+    <t>Tom 3
+USC</t>
+  </si>
+  <si>
+    <t>Tom 4
+USC</t>
+  </si>
+  <si>
+    <t>Guitar 1 (A) DCR</t>
+  </si>
+  <si>
+    <t>Guitar 2 (E) DCL</t>
+  </si>
+  <si>
+    <t>Guitar 3 (E) DSL</t>
+  </si>
+  <si>
+    <t>Guitar 4 (A) DSL</t>
+  </si>
+  <si>
+    <t>|---------------------------------------------------------------- Drums ----------------------------------------------------------------------------------------------------|</t>
+  </si>
+  <si>
+    <t>|--- Bass ---|</t>
+  </si>
+  <si>
+    <t>| --- SFX ---|</t>
+  </si>
+  <si>
+    <t>| Talkback |</t>
+  </si>
+  <si>
+    <t>|-------------------------------------- Vocals -------------------------------------|</t>
+  </si>
+  <si>
+    <t>|---------------------------- Guitars --------------------------|</t>
+  </si>
+  <si>
+    <t>|----------- Keys -----------|</t>
+  </si>
+  <si>
+    <t>The column width needs to be set to 12 so each cell can accurately occupy a single XLR port spacing on the splitter.</t>
+  </si>
+  <si>
+    <t>|----------- Crowd -----------|</t>
+  </si>
+  <si>
+    <t>Chad
+IEM</t>
+  </si>
+  <si>
+    <t>Jessica
+IEM</t>
+  </si>
+  <si>
+    <t>|----------------------------- In-Ear Monitors --------------------------------|</t>
   </si>
 </sst>
 </file>
@@ -152,14 +193,14 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="36"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -167,38 +208,38 @@
     </font>
     <font>
       <b/>
-      <sz val="36"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -255,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -298,64 +339,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728856F4-176B-4634-AD3E-524669928A0A}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,287 +750,394 @@
     <col min="18" max="22" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="J1" s="10" t="s">
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="J6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1">
+        <v>28</v>
+      </c>
+      <c r="N7" s="1">
+        <v>29</v>
+      </c>
+      <c r="O7" s="1">
+        <v>30</v>
+      </c>
+      <c r="P7" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="N8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="O8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="17" t="s">
+    </row>
+    <row r="9" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="J5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2">
-        <v>24</v>
-      </c>
-      <c r="J6" s="2">
-        <v>25</v>
-      </c>
-      <c r="K6" s="2">
-        <v>26</v>
-      </c>
-      <c r="L6" s="2">
-        <v>27</v>
-      </c>
-      <c r="M6" s="2">
-        <v>28</v>
-      </c>
-      <c r="N6" s="2">
-        <v>29</v>
-      </c>
-      <c r="O6" s="2">
-        <v>30</v>
-      </c>
-      <c r="P6" s="2">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="2">
+      <c r="F9" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="9"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="14">
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="K4:O5"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="J9:N10"/>
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="A9:H10"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="J6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8D2B98-35E7-4A67-80BA-C7FC0DAE80A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5955D04C-6C49-46F5-A9B9-7D111040CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-16320" yWindow="-7305" windowWidth="16440" windowHeight="29040" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
@@ -72,12 +72,6 @@
     <t>Vocals 2 DCR</t>
   </si>
   <si>
-    <t>Vocals 3 DCL</t>
-  </si>
-  <si>
-    <t>Vocals 4 DSL</t>
-  </si>
-  <si>
     <t>Vocals 5 USC</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Guitar 4 (A) DSL</t>
   </si>
   <si>
-    <t>|---------------------------------------------------------------- Drums ----------------------------------------------------------------------------------------------------|</t>
-  </si>
-  <si>
     <t>|--- Bass ---|</t>
   </si>
   <si>
@@ -177,6 +168,17 @@
   </si>
   <si>
     <t>|----------------------------- In-Ear Monitors --------------------------------|</t>
+  </si>
+  <si>
+    <t>|--------------------------------------------------------------- Drums -----------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Vocals 3
+DCL</t>
+  </si>
+  <si>
+    <t>Vocals 4
+DSL</t>
   </si>
 </sst>
 </file>
@@ -296,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -348,11 +350,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,12 +374,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -392,23 +399,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728856F4-176B-4634-AD3E-524669928A0A}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J1" sqref="J1:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,29 +766,29 @@
     <col min="18" max="22" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="J1" s="4" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
     </row>
-    <row r="2" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -822,93 +838,99 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="Q3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="15"/>
+    <row r="4" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19" t="str">
+        <f>"---------------|"</f>
+        <v>---------------|</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="19"/>
     </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+    <row r="5" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="J5" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -917,227 +939,180 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+    <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1">
+        <v>28</v>
+      </c>
+      <c r="N6" s="1">
+        <v>29</v>
+      </c>
+      <c r="O6" s="1">
+        <v>30</v>
+      </c>
+      <c r="P6" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1">
+    <row r="7" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="1">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="1">
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="1">
+      <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="1">
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="1">
+      <c r="F8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="1">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="1">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>32</v>
-      </c>
     </row>
-    <row r="8" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>5</v>
-      </c>
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15" t="s">
-        <v>33</v>
-      </c>
+    <row r="10" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="14"/>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-    </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-    </row>
-    <row r="12" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="2"/>
+    <row r="11" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="K4:O5"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="J9:N10"/>
-    <mergeCell ref="A12:H12"/>
+  <mergeCells count="5">
+    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="J5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5955D04C-6C49-46F5-A9B9-7D111040CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB30792-8933-4A9F-8F08-12E9D2536E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-7305" windowWidth="16440" windowHeight="29040" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
@@ -405,6 +405,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -413,18 +425,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,7 +757,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:Q8"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,26 +767,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="J1" s="16" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="J1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -890,54 +890,54 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19" t="str">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16" t="str">
         <f>"---------------|"</f>
         <v>---------------|</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19" t="s">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="J5" s="16" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="J5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1037,33 +1037,33 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20" t="s">
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20" t="s">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1083,16 +1083,16 @@
       <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB30792-8933-4A9F-8F08-12E9D2536E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782203BB-FD48-4B90-9C1F-4B07CA0226CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -263,12 +263,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,6 +288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA3E0FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,28 +374,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,6 +422,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,7 +757,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,26 +767,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="J1" s="20" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="J1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -839,32 +839,32 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -876,68 +876,68 @@
       <c r="M3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16" t="str">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15" t="str">
         <f>"---------------|"</f>
         <v>---------------|</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="J5" s="20" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="J5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -996,10 +996,10 @@
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1008,10 +1008,10 @@
       <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="8" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -1023,87 +1023,87 @@
       <c r="M7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="17" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17" t="s">
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17" t="s">
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="2"/>
     </row>
   </sheetData>

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782203BB-FD48-4B90-9C1F-4B07CA0226CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827DF8FE-CABF-4399-92F0-6D9373C76E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
@@ -48,10 +48,6 @@
 IEM</t>
   </si>
   <si>
-    <t>John
-IEM</t>
-  </si>
-  <si>
     <t>Kenzi
 IEM</t>
   </si>
@@ -179,6 +175,10 @@
   <si>
     <t>Vocals 4
 DSL</t>
+  </si>
+  <si>
+    <t>Gordon
+IEM</t>
   </si>
 </sst>
 </file>
@@ -414,6 +414,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -422,9 +425,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,7 +757,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,26 +767,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="J1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="J1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -840,58 +840,58 @@
     </row>
     <row r="3" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>12</v>
+      <c r="P3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -906,38 +906,38 @@
         <v>---------------|</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="J5" s="19" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="J5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -991,80 +991,80 @@
     </row>
     <row r="7" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="12"/>
       <c r="J8" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1083,16 +1083,16 @@
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827DF8FE-CABF-4399-92F0-6D9373C76E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0902F2D-0B13-4400-9E7F-74CF72955117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 DSL</t>
   </si>
   <si>
-    <t>Gordon
+    <t>Pending
 IEM</t>
   </si>
 </sst>

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0902F2D-0B13-4400-9E7F-74CF72955117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6494BD4A-BFB2-4D03-BD15-5A8DEE71202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-28920" yWindow="1305" windowWidth="29040" windowHeight="15720" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
@@ -177,7 +177,7 @@
 DSL</t>
   </si>
   <si>
-    <t>Pending
+    <t>Billy
 IEM</t>
   </si>
 </sst>
@@ -757,7 +757,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6494BD4A-BFB2-4D03-BD15-5A8DEE71202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E3A715-CA80-4AC9-A365-61427C71A02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1305" windowWidth="29040" windowHeight="15720" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Top</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Vocals 5 USC</t>
   </si>
   <si>
-    <t>Aux/SFX DSR</t>
-  </si>
-  <si>
     <t>Keyboard DSL</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
   </si>
   <si>
     <t>|--- Bass ---|</t>
-  </si>
-  <si>
-    <t>| --- SFX ---|</t>
   </si>
   <si>
     <t>| Talkback |</t>
@@ -757,7 +751,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,32 +834,32 @@
     </row>
     <row r="3" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
@@ -874,24 +868,24 @@
         <v>8</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -906,14 +900,14 @@
         <v>---------------|</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="15"/>
     </row>
@@ -991,34 +985,32 @@
     </row>
     <row r="7" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>2</v>
@@ -1038,33 +1030,31 @@
     </row>
     <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F8" s="16"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="12"/>
       <c r="J8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1084,7 +1074,7 @@
     </row>
     <row r="10" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E3A715-CA80-4AC9-A365-61427C71A02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F651A74-CC90-41CB-9465-61EE0D9F570B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +242,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +300,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -304,21 +331,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -355,69 +367,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,9 +487,9 @@
   <colors>
     <mruColors>
       <color rgb="FF00E266"/>
+      <color rgb="FF0066FF"/>
       <color rgb="FFA3E0FF"/>
       <color rgb="FFE5F5FF"/>
-      <color rgb="FF0066FF"/>
       <color rgb="FFF2F2F2"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFE2EFDA"/>
@@ -751,7 +809,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,119 +819,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="J1" s="20" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="J1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
-    <row r="2" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="21">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="21">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="21">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="22">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="22">
         <v>6</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="22">
         <v>7</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="22">
         <v>8</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="26">
         <v>9</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="26">
         <v>10</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="26">
         <v>11</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="26">
         <v>12</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="23">
         <v>13</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="23">
         <v>14</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="23">
         <v>15</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="23">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:17" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="P3" s="18" t="s">
@@ -884,110 +942,110 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15" t="str">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="str">
         <f>"---------------|"</f>
         <v>---------------|</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="J5" s="20" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="J5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="25">
         <v>18</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="25">
         <v>19</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="25">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="27">
         <v>21</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="27">
         <v>22</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="27">
         <v>23</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="27">
         <v>24</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="24">
         <v>25</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="24">
         <v>26</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="24">
         <v>27</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="24">
         <v>28</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="24">
         <v>29</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="24">
         <v>30</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="24">
         <v>31</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="24">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:17" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -996,105 +1054,105 @@
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="7" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="17" t="s">
         <v>2</v>
       </c>
       <c r="N7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="16" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16" t="s">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Input List/Full Band/Split Map.xlsx
+++ b/Input List/Full Band/Split Map.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\Input List\Full Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TechnicalDocumentation\Input List\Full Band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F651A74-CC90-41CB-9465-61EE0D9F570B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F0A2D8-C930-4E22-A947-26C54A4A4F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Split Map" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,30 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Top</t>
   </si>
   <si>
     <t>Bottom</t>
-  </si>
-  <si>
-    <t>Paul
-IEM</t>
-  </si>
-  <si>
-    <t>Kenzi
-IEM</t>
-  </si>
-  <si>
-    <t>Talk
-Back</t>
-  </si>
-  <si>
-    <t>Crowd Left</t>
-  </si>
-  <si>
-    <t>Crowd Right</t>
   </si>
   <si>
     <t>Vocals 1 DSR</t>
@@ -132,12 +113,6 @@
     <t>|--- Bass ---|</t>
   </si>
   <si>
-    <t>| Talkback |</t>
-  </si>
-  <si>
-    <t>|-------------------------------------- Vocals -------------------------------------|</t>
-  </si>
-  <si>
     <t>|---------------------------- Guitars --------------------------|</t>
   </si>
   <si>
@@ -145,20 +120,6 @@
   </si>
   <si>
     <t>The column width needs to be set to 12 so each cell can accurately occupy a single XLR port spacing on the splitter.</t>
-  </si>
-  <si>
-    <t>|----------- Crowd -----------|</t>
-  </si>
-  <si>
-    <t>Chad
-IEM</t>
-  </si>
-  <si>
-    <t>Jessica
-IEM</t>
-  </si>
-  <si>
-    <t>|----------------------------- In-Ear Monitors --------------------------------|</t>
   </si>
   <si>
     <t>|--------------------------------------------------------------- Drums -----------------------------------------------------------------</t>
@@ -172,8 +133,13 @@
 DSL</t>
   </si>
   <si>
-    <t>Billy
-IEM</t>
+    <t>|-------------------------------------------------------- Vocals -------------------------------------------------------|</t>
+  </si>
+  <si>
+    <t>Vocals 6 DCR</t>
+  </si>
+  <si>
+    <t>Vocals 7 DCR</t>
   </si>
 </sst>
 </file>
@@ -266,12 +232,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -318,6 +278,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -399,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -427,6 +393,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -436,47 +441,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,6 +453,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF00E266"/>
       <color rgb="FF0066FF"/>
       <color rgb="FFA3E0FF"/>
@@ -493,7 +461,6 @@
       <color rgb="FFF2F2F2"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFE2EFDA"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FF00B050"/>
       <color rgb="FF70AD47"/>
     </mruColors>
@@ -809,7 +776,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,131 +786,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="J1" s="12" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="J1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="17">
         <v>2</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="17">
         <v>3</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="17">
         <v>4</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>5</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>6</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="18">
         <v>7</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="18">
         <v>8</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="22">
         <v>9</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="22">
         <v>10</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="22">
         <v>11</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="22">
         <v>12</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="19">
         <v>13</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="19">
         <v>14</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="19">
         <v>15</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>10</v>
+      <c r="K3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -964,156 +931,138 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="J5" s="12" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="J5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="21">
         <v>17</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="21">
         <v>18</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="21">
         <v>19</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="21">
         <v>20</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="23">
         <v>21</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="23">
         <v>22</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="23">
         <v>23</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="23">
         <v>24</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="20">
         <v>25</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="20">
         <v>26</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="20">
         <v>27</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="20">
         <v>28</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="20">
         <v>29</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="20">
         <v>30</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="20">
         <v>31</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="20">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>25</v>
+      <c r="A7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="16"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="E8" s="27"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -1131,16 +1080,16 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="A10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
